--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyenntx1\Courses\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E84E8BD-F2E7-42C2-99A0-E97762DCFC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133300E7-C26D-44F2-9A0B-079A99AED20E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>KNN</t>
   </si>
@@ -76,19 +76,37 @@
   </si>
   <si>
     <t>Cross validation</t>
+  </si>
+  <si>
+    <t>Data 7: Thêm đặc trưng Canny và Wavelet có đưa qua PCA</t>
+  </si>
+  <si>
+    <t>Data 8: Thêm đặc trưng Canny và Wavelet không đưa qua PCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,11 +125,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -120,6 +190,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -402,15 +502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="47.7265625" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15.54296875" customWidth="1"/>
@@ -427,7 +527,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -448,250 +548,292 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>0.6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="F3" s="5">
         <v>0.63490000000000002</v>
       </c>
-      <c r="F3">
-        <v>0.63490000000000002</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>0.53959999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>0.59</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="F4" s="7">
         <v>0.63490000000000002</v>
       </c>
-      <c r="F4">
-        <v>0.63490000000000002</v>
-      </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>0.63</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
+        <v>0.6825</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="F5">
-        <v>0.65080000000000005</v>
-      </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>0.60309999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>0.6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E6">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="F6">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="7">
+        <v>0.6825</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="G6" s="7">
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>0.63</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="F7">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="7">
+        <v>0.73019999999999996</v>
+      </c>
+      <c r="G7" s="7">
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>0.62</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="F8">
-        <v>0.63490000000000002</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="7">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="G8" s="7">
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="9" spans="1:7" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>0.64510000000000001</v>
-      </c>
-      <c r="D9">
-        <v>0.65080000000000005</v>
-      </c>
-      <c r="E9">
-        <v>0.58730000000000004</v>
-      </c>
-      <c r="F9">
-        <v>0.61899999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
         <v>0.64510000000000001</v>
       </c>
-      <c r="D10">
-        <v>0.6825</v>
-      </c>
-      <c r="E10">
-        <v>0.58730000000000004</v>
-      </c>
-      <c r="F10">
-        <v>0.57140000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
+      <c r="D11" s="5">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="F11" s="5">
         <v>0.629</v>
       </c>
-      <c r="D11">
-        <v>0.63490000000000002</v>
-      </c>
-      <c r="E11">
-        <v>0.69350000000000001</v>
-      </c>
-      <c r="F11">
-        <v>0.7097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="D12">
-        <v>0.69350000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.69350000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.6774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.6825</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.57140000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.629</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>0.63490000000000002</v>
       </c>
-      <c r="E13">
-        <v>0.70960000000000001</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="7">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="F13" s="7">
         <v>0.7258</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.7258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.629</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.7419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C16" s="6">
         <v>0.629</v>
       </c>
-      <c r="D14">
+      <c r="D16" s="7">
         <v>0.69350000000000001</v>
       </c>
-      <c r="E14">
-        <v>0.6774</v>
-      </c>
-      <c r="F14">
-        <v>0.6774</v>
+      <c r="E16" s="7">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.7258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A3:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyenntx1\Courses\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linhvt22\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E84E8BD-F2E7-42C2-99A0-E97762DCFC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BBCD28-AA15-4EE1-866E-4CC71817D1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5964" yWindow="996" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>KNN</t>
   </si>
@@ -76,19 +76,39 @@
   </si>
   <si>
     <t>Cross validation</t>
+  </si>
+  <si>
+    <t>Data 7:  
+mean, var, std, min-max pixel, bdips of normal and erosion
+with PCA</t>
+  </si>
+  <si>
+    <t>Data 8:  
+mean, var, std, min-max pixel, bdips of normal and erosion
+without PCA</t>
+  </si>
+  <si>
+    <t>Data 9:  
+mean, var, std, min-max pixel, bdips of normal and erosion
+with PCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,16 +131,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,36 +428,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -448,8 +474,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -471,8 +497,8 @@
         <v>0.53959999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:7" ht="29.55" customHeight="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -492,8 +518,8 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:7" ht="28.8">
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -513,8 +539,8 @@
         <v>0.60309999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:7" ht="30.45" customHeight="1">
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -534,8 +560,8 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:7" ht="28.8">
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -555,8 +581,8 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -576,113 +602,177 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" ht="57.6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.629</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.629</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="57.6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.6129</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.6129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="57.6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.4677</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.60329999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.8">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C13">
         <v>0.64510000000000001</v>
       </c>
-      <c r="D9">
+      <c r="D13">
         <v>0.65080000000000005</v>
       </c>
-      <c r="E9">
+      <c r="E13">
         <v>0.58730000000000004</v>
       </c>
-      <c r="F9">
+      <c r="F13">
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+    <row r="14" spans="1:7" ht="28.8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <v>0.64510000000000001</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <v>0.6825</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>0.58730000000000004</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <v>0.57140000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
+    <row r="15" spans="1:7" ht="28.8">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C15">
         <v>0.629</v>
       </c>
-      <c r="D11">
+      <c r="D15">
         <v>0.63490000000000002</v>
       </c>
-      <c r="E11">
+      <c r="E15">
         <v>0.69350000000000001</v>
       </c>
-      <c r="F11">
+      <c r="F15">
         <v>0.7097</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
+    <row r="16" spans="1:7" ht="28.8">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C16">
         <v>0.66669999999999996</v>
       </c>
-      <c r="D12">
+      <c r="D16">
         <v>0.69350000000000001</v>
       </c>
-      <c r="E12">
+      <c r="E16">
         <v>0.69350000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F16">
         <v>0.6774</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
+    <row r="17" spans="1:6" ht="28.8">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <v>0.629</v>
       </c>
-      <c r="D13">
+      <c r="D17">
         <v>0.63490000000000002</v>
       </c>
-      <c r="E13">
+      <c r="E17">
         <v>0.70960000000000001</v>
       </c>
-      <c r="F13">
+      <c r="F17">
         <v>0.7258</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
+    <row r="18" spans="1:6" ht="28.8">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C18">
         <v>0.629</v>
       </c>
-      <c r="D14">
+      <c r="D18">
         <v>0.69350000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E18">
         <v>0.6774</v>
       </c>
-      <c r="F14">
+      <c r="F18">
         <v>0.6774</v>
       </c>
     </row>
@@ -691,7 +781,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A13:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linhvt22\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BBCD28-AA15-4EE1-866E-4CC71817D1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ED7B00-BD21-4F52-B4E1-045C52033CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5964" yWindow="996" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>KNN</t>
   </si>
@@ -86,11 +86,6 @@
     <t>Data 8:  
 mean, var, std, min-max pixel, bdips of normal and erosion
 without PCA</t>
-  </si>
-  <si>
-    <t>Data 9:  
-mean, var, std, min-max pixel, bdips of normal and erosion
-with PCA</t>
   </si>
 </sst>
 </file>
@@ -428,9 +423,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -581,7 +576,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8">
+    <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -608,16 +603,19 @@
         <v>15</v>
       </c>
       <c r="C9" s="5">
-        <v>0.629</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D9" s="5">
-        <v>0.59599999999999997</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="E9" s="5">
-        <v>0.629</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="F9" s="5">
-        <v>0.67700000000000005</v>
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57.6">
@@ -626,153 +624,132 @@
         <v>16</v>
       </c>
       <c r="C10" s="5">
-        <v>0.53</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D10" s="5">
-        <v>0.6129</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="E10" s="5">
-        <v>0.69350000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F10" s="5">
-        <v>0.69350000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="G10" s="5">
-        <v>0.6129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="57.6">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.4677</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.60329999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.8">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="E12">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="F12">
+        <v>0.61899999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="28.8">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>0.64510000000000001</v>
       </c>
       <c r="D13">
-        <v>0.65080000000000005</v>
+        <v>0.6825</v>
       </c>
       <c r="E13">
         <v>0.58730000000000004</v>
       </c>
       <c r="F13">
-        <v>0.61899999999999999</v>
+        <v>0.57140000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.8">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>0.64510000000000001</v>
+        <v>0.629</v>
       </c>
       <c r="D14">
-        <v>0.6825</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="E14">
-        <v>0.58730000000000004</v>
+        <v>0.69350000000000001</v>
       </c>
       <c r="F14">
-        <v>0.57140000000000002</v>
+        <v>0.7097</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28.8">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>0.629</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D15">
-        <v>0.63490000000000002</v>
+        <v>0.69350000000000001</v>
       </c>
       <c r="E15">
         <v>0.69350000000000001</v>
       </c>
       <c r="F15">
-        <v>0.7097</v>
+        <v>0.6774</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>0.66669999999999996</v>
+        <v>0.629</v>
       </c>
       <c r="D16">
-        <v>0.69350000000000001</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="E16">
-        <v>0.69350000000000001</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="F16">
-        <v>0.6774</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>0.629</v>
       </c>
       <c r="D17">
-        <v>0.63490000000000002</v>
+        <v>0.69350000000000001</v>
       </c>
       <c r="E17">
-        <v>0.70960000000000001</v>
+        <v>0.6774</v>
       </c>
       <c r="F17">
-        <v>0.7258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.8">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>0.629</v>
-      </c>
-      <c r="D18">
-        <v>0.69350000000000001</v>
-      </c>
-      <c r="E18">
-        <v>0.6774</v>
-      </c>
-      <c r="F18">
         <v>0.6774</v>
       </c>
     </row>
@@ -781,7 +758,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
